--- a/data/bestellingen 7180 2025_not_latest.xlsx
+++ b/data/bestellingen 7180 2025_not_latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\R\Bestellingen\shiny\7180\orders7180\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\R\Bestellingen\shiny\7180\7180\jorgpeter-orders7180\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483CEF2D-B61E-4817-97F7-E75F2886DBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E952F1E-EAEE-48BB-8B28-C1A4DE16CB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13623" uniqueCount="2757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13623" uniqueCount="2756">
   <si>
     <t>1001328181</t>
   </si>
@@ -8293,9 +8293,6 @@
   </si>
   <si>
     <t>Vial</t>
-  </si>
-  <si>
-    <t>Aelgemeng</t>
   </si>
   <si>
     <t>Date</t>
@@ -8306,7 +8303,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -8380,13 +8377,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -8728,7 +8725,7 @@
   <dimension ref="A1:L1361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K1362" sqref="K1362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8772,7 +8769,7 @@
         <v>2668</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="J1" t="s">
         <v>2496</v>
@@ -55475,7 +55472,7 @@
         <v>2502</v>
       </c>
       <c r="K1334" t="s">
-        <v>2755</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="1335" spans="1:11" x14ac:dyDescent="0.2">
